--- a/static/documents/schedule.xlsx
+++ b/static/documents/schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="98">
   <si>
     <t>Понедельник</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Музыка</t>
   </si>
   <si>
-    <t>маст.</t>
-  </si>
-  <si>
     <t>5 А</t>
   </si>
   <si>
@@ -112,9 +109,6 @@
     <t xml:space="preserve">6 А   </t>
   </si>
   <si>
-    <t>Родной рус. яз.</t>
-  </si>
-  <si>
     <t>317/319</t>
   </si>
   <si>
@@ -163,9 +157,6 @@
     <t>Химия</t>
   </si>
   <si>
-    <t>315/318</t>
-  </si>
-  <si>
     <t>8 А</t>
   </si>
   <si>
@@ -181,9 +172,6 @@
     <t>8 Ж</t>
   </si>
   <si>
-    <t>214/316</t>
-  </si>
-  <si>
     <t>Искусство</t>
   </si>
   <si>
@@ -196,27 +184,15 @@
     <t>214/319</t>
   </si>
   <si>
-    <t>214/303</t>
-  </si>
-  <si>
     <t>214/215</t>
   </si>
   <si>
     <t>211/214</t>
   </si>
   <si>
-    <t>214/304</t>
-  </si>
-  <si>
     <t>214/101</t>
   </si>
   <si>
-    <t>214/305</t>
-  </si>
-  <si>
-    <t>209/214</t>
-  </si>
-  <si>
     <t>9 А</t>
   </si>
   <si>
@@ -259,9 +235,6 @@
     <t>101/319</t>
   </si>
   <si>
-    <t>306/319</t>
-  </si>
-  <si>
     <t>110/112</t>
   </si>
   <si>
@@ -290,6 +263,51 @@
   </si>
   <si>
     <t>317/</t>
+  </si>
+  <si>
+    <t>Родной язык</t>
+  </si>
+  <si>
+    <t>Обществознание</t>
+  </si>
+  <si>
+    <t>318/214</t>
+  </si>
+  <si>
+    <t>214/201</t>
+  </si>
+  <si>
+    <t>105/208</t>
+  </si>
+  <si>
+    <t>311/319</t>
+  </si>
+  <si>
+    <t>Родная литература</t>
+  </si>
+  <si>
+    <t>209/317</t>
+  </si>
+  <si>
+    <t>Русский. Яз</t>
+  </si>
+  <si>
+    <t>201/319</t>
+  </si>
+  <si>
+    <t>309/318</t>
+  </si>
+  <si>
+    <t>Русский. яз</t>
+  </si>
+  <si>
+    <t>Русский  яз.</t>
+  </si>
+  <si>
+    <t>Анг. яз</t>
+  </si>
+  <si>
+    <t>ИП</t>
   </si>
 </sst>
 </file>
@@ -366,7 +384,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -401,11 +419,17 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -711,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:K51"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="G262" sqref="G262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -731,19 +755,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
+      <c r="A1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -776,7 +800,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>7</v>
@@ -905,7 +929,7 @@
         <v>18</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -934,7 +958,7 @@
         <v>6</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>9</v>
@@ -1005,19 +1029,19 @@
       <c r="K10" s="9"/>
     </row>
     <row r="11" spans="1:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="A11" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
+      <c r="A11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
@@ -1091,13 +1115,13 @@
         <v>19</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>21</v>
@@ -1173,7 +1197,7 @@
         <v>6</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>8</v>
@@ -1214,7 +1238,7 @@
         <v>18</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1279,19 +1303,19 @@
       <c r="K20" s="9"/>
     </row>
     <row r="21" spans="1:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="A21" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
+      <c r="A21" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
@@ -1330,7 +1354,7 @@
         <v>19</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>8</v>
@@ -1406,7 +1430,7 @@
         <v>6</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>9</v>
@@ -1513,13 +1537,13 @@
         <v>6</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J28" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -1553,19 +1577,19 @@
       <c r="K30" s="9"/>
     </row>
     <row r="31" spans="1:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="A31" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
+      <c r="A31" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
@@ -1598,7 +1622,7 @@
         <v>6</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>9</v>
@@ -1657,7 +1681,7 @@
         <v>18</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -1750,7 +1774,7 @@
         <v>6</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>13</v>
@@ -1773,7 +1797,7 @@
         <v>19</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>7</v>
@@ -1827,19 +1851,19 @@
       <c r="K40" s="9"/>
     </row>
     <row r="41" spans="1:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="A41" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
+      <c r="A41" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
@@ -1890,7 +1914,7 @@
         <v>6</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>9</v>
@@ -1907,7 +1931,7 @@
         <v>19</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>7</v>
@@ -1942,7 +1966,7 @@
         <v>6</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>9</v>
@@ -1954,7 +1978,7 @@
         <v>6</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>5</v>
@@ -2101,19 +2125,19 @@
       <c r="K50" s="1"/>
     </row>
     <row r="51" spans="1:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="A51" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
+      <c r="A51" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
@@ -2218,7 +2242,7 @@
         <v>6</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>8</v>
@@ -2253,7 +2277,7 @@
         <v>19</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>15</v>
@@ -2265,7 +2289,7 @@
         <v>6</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J56" s="4" t="s">
         <v>9</v>
@@ -2288,7 +2312,7 @@
         <v>19</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>17</v>
@@ -2329,7 +2353,7 @@
         <v>6</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>15</v>
@@ -2358,19 +2382,19 @@
       </c>
     </row>
     <row r="60" spans="1:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="A60" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="13"/>
+      <c r="A60" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
@@ -2438,19 +2462,19 @@
         <v>6</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H63" s="4" t="s">
         <v>9</v>
@@ -2462,7 +2486,7 @@
         <v>19</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -2497,7 +2521,7 @@
         <v>19</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -2606,19 +2630,19 @@
       </c>
     </row>
     <row r="68" spans="1:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="A68" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="13"/>
-      <c r="J68" s="13"/>
-      <c r="K68" s="13"/>
+      <c r="A68" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
@@ -2710,7 +2734,7 @@
         <v>6</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -2780,7 +2804,7 @@
         <v>16</v>
       </c>
       <c r="K73" s="1">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -2809,7 +2833,7 @@
         <v>19</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J74" s="4" t="s">
         <v>20</v>
@@ -2828,7 +2852,7 @@
         <v>6</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>7</v>
@@ -2840,7 +2864,7 @@
         <v>19</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J75" s="4" t="s">
         <v>7</v>
@@ -2861,7 +2885,7 @@
         <v>6</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H76" s="4"/>
       <c r="I76" s="5"/>
@@ -2869,19 +2893,19 @@
       <c r="K76" s="5"/>
     </row>
     <row r="77" spans="1:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="A77" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="13"/>
-      <c r="K77" s="13"/>
+      <c r="A77" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="14"/>
+      <c r="K77" s="14"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
@@ -2980,7 +3004,7 @@
         <v>18</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>13</v>
@@ -2992,7 +3016,7 @@
         <v>6</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H81" s="4" t="s">
         <v>9</v>
@@ -3039,7 +3063,7 @@
         <v>19</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -3074,7 +3098,7 @@
         <v>19</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -3105,7 +3129,7 @@
         <v>6</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -3132,19 +3156,19 @@
       </c>
     </row>
     <row r="86" spans="1:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="A86" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="13"/>
-      <c r="I86" s="13"/>
-      <c r="J86" s="13"/>
-      <c r="K86" s="13"/>
+      <c r="A86" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
+      <c r="J86" s="14"/>
+      <c r="K86" s="14"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
@@ -3245,7 +3269,7 @@
         <v>7</v>
       </c>
       <c r="E90" s="11">
-        <v>45109</v>
+        <v>207</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>9</v>
@@ -3327,7 +3351,7 @@
         <v>6</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J92" s="4" t="s">
         <v>16</v>
@@ -3344,7 +3368,7 @@
         <v>6</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>9</v>
@@ -3356,7 +3380,7 @@
         <v>19</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H93" s="4" t="s">
         <v>21</v>
@@ -3372,7 +3396,9 @@
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="5"/>
+      <c r="A94" s="5">
+        <v>7</v>
+      </c>
       <c r="B94" s="4"/>
       <c r="C94" s="5"/>
       <c r="D94" s="4"/>
@@ -3381,7 +3407,7 @@
         <v>19</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H94" s="4"/>
       <c r="I94" s="5"/>
@@ -3389,7 +3415,7 @@
         <v>6</v>
       </c>
       <c r="K94" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -3419,19 +3445,19 @@
       <c r="K96" s="2"/>
     </row>
     <row r="97" spans="1:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="A97" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B97" s="13"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="13"/>
-      <c r="I97" s="13"/>
-      <c r="J97" s="13"/>
-      <c r="K97" s="13"/>
+      <c r="A97" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="14"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="14"/>
+      <c r="J97" s="14"/>
+      <c r="K97" s="14"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
@@ -3466,26 +3492,26 @@
       <c r="C99" s="2">
         <v>209</v>
       </c>
-      <c r="D99" s="6"/>
-      <c r="E99" s="2"/>
+      <c r="D99" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E99" s="2">
+        <v>203</v>
+      </c>
       <c r="F99" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G99" s="2">
         <v>203</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="I99" s="2">
-        <v>103</v>
-      </c>
-      <c r="J99" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K99" s="2">
-        <v>101</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="J99" s="4"/>
+      <c r="K99" s="2"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
@@ -3498,28 +3524,28 @@
         <v>209</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="E100" s="2">
+        <v>203</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="G100" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="I100" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="K100" s="2">
-        <v>308</v>
+        <v>209</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
@@ -3533,10 +3559,10 @@
         <v>14</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E101" s="2">
-        <v>203</v>
+        <v>6</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>7</v>
@@ -3545,16 +3571,16 @@
         <v>209</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I101" s="2">
-        <v>304</v>
+        <v>6</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K101" s="2">
-        <v>202</v>
+        <v>101</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
@@ -3562,10 +3588,10 @@
         <v>4</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C102" s="2">
-        <v>206</v>
+        <v>102</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>7</v>
@@ -3574,22 +3600,22 @@
         <v>209</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G102" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="G102" s="2">
+        <v>302</v>
+      </c>
       <c r="H102" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I102" s="2">
-        <v>304</v>
+        <v>19</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K102" s="2" t="s">
-        <v>46</v>
+        <v>21</v>
+      </c>
+      <c r="K102" s="2">
+        <v>103</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
@@ -3597,16 +3623,16 @@
         <v>5</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C103" s="2">
-        <v>205</v>
+        <v>6</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E103" s="2">
-        <v>209</v>
+        <v>308</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>12</v>
@@ -3615,10 +3641,10 @@
         <v>14</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="I103" s="2">
-        <v>203</v>
+        <v>102</v>
       </c>
       <c r="J103" s="4" t="s">
         <v>5</v>
@@ -3632,34 +3658,34 @@
         <v>6</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C104" s="2">
-        <v>102</v>
+        <v>203</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="E104" s="2">
+        <v>314</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G104" s="2">
         <v>304</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I104" s="2">
         <v>203</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K104" s="2">
-        <v>203</v>
+        <v>316</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
@@ -3667,38 +3693,40 @@
         <v>7</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C105" s="2">
         <v>304</v>
       </c>
-      <c r="D105" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E105" s="2">
-        <v>308</v>
+      <c r="D105" s="4"/>
+      <c r="E105" s="2"/>
+      <c r="H105" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I105" s="12">
+        <v>203</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K105" s="2">
-        <v>102</v>
+        <v>316</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="A106" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B106" s="13"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="13"/>
-      <c r="F106" s="13"/>
-      <c r="G106" s="13"/>
-      <c r="H106" s="13"/>
-      <c r="I106" s="13"/>
-      <c r="J106" s="13"/>
-      <c r="K106" s="13"/>
+      <c r="A106" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="14"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="14"/>
+      <c r="J106" s="14"/>
+      <c r="K106" s="14"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
@@ -3728,17 +3756,13 @@
         <v>1</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C108" s="2">
         <v>304</v>
       </c>
-      <c r="D108" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E108" s="2">
-        <v>302</v>
-      </c>
+      <c r="D108" s="4"/>
+      <c r="E108" s="2"/>
       <c r="F108" s="4" t="s">
         <v>7</v>
       </c>
@@ -3746,13 +3770,13 @@
         <v>211</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="I108" s="2">
-        <v>315</v>
+        <v>203</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K108" s="2">
         <v>304</v>
@@ -3769,28 +3793,28 @@
         <v>14</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E109" s="2">
-        <v>211</v>
+        <v>6</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G109" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I109" s="2">
-        <v>211</v>
+        <v>6</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K109" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
@@ -3798,34 +3822,34 @@
         <v>3</v>
       </c>
       <c r="B110" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E110" s="2">
+        <v>101</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G110" s="2">
+        <v>300</v>
+      </c>
+      <c r="H110" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C110" s="2">
+      <c r="I110" s="2">
         <v>308</v>
       </c>
-      <c r="D110" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G110" s="2">
-        <v>303</v>
-      </c>
-      <c r="H110" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I110" s="2">
-        <v>203</v>
-      </c>
       <c r="J110" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="K110" s="2">
-        <v>211</v>
+        <v>316</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
@@ -3833,10 +3857,10 @@
         <v>4</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C111" s="2">
-        <v>102</v>
+        <v>211</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>45</v>
@@ -3851,16 +3875,16 @@
         <v>14</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I111" s="2">
-        <v>308</v>
+        <v>102</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="K111" s="2">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
@@ -3868,34 +3892,34 @@
         <v>5</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="C112" s="2">
+        <v>211</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E112" s="2">
+        <v>201</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G112" s="2">
         <v>203</v>
       </c>
-      <c r="D112" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="H112" s="4" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="I112" s="2">
-        <v>102</v>
+        <v>203</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="K112" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
@@ -3903,25 +3927,25 @@
         <v>6</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C113" s="2">
-        <v>203</v>
+        <v>6</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E113" s="2">
         <v>211</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="G113" s="2">
-        <v>203</v>
+        <v>303</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I113" s="2">
         <v>211</v>
@@ -3937,33 +3961,40 @@
       <c r="A114" s="2">
         <v>7</v>
       </c>
+      <c r="D114" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E114" s="12">
+        <v>211</v>
+      </c>
       <c r="F114" s="4" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="G114" s="2">
-        <v>109</v>
-      </c>
-      <c r="J114" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K114" t="s">
-        <v>49</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I114" s="12">
+        <v>103</v>
+      </c>
+      <c r="J114" s="4"/>
     </row>
     <row r="115" spans="1:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="A115" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B115" s="13"/>
-      <c r="C115" s="13"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="13"/>
-      <c r="F115" s="13"/>
-      <c r="G115" s="13"/>
-      <c r="H115" s="13"/>
-      <c r="I115" s="13"/>
-      <c r="J115" s="13"/>
-      <c r="K115" s="13"/>
+      <c r="A115" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c r="G115" s="14"/>
+      <c r="H115" s="14"/>
+      <c r="I115" s="14"/>
+      <c r="J115" s="14"/>
+      <c r="K115" s="14"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
@@ -3999,10 +4030,10 @@
         <v>14</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E117" s="2">
-        <v>203</v>
+        <v>6</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="F117" s="4" t="s">
         <v>12</v>
@@ -4011,10 +4042,10 @@
         <v>14</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I117" s="2">
-        <v>209</v>
+        <v>102</v>
       </c>
       <c r="J117" s="4" t="s">
         <v>7</v>
@@ -4034,28 +4065,28 @@
         <v>203</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E118" s="2">
+        <v>314</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G118" s="2">
+        <v>302</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I118" s="2">
+        <v>209</v>
+      </c>
+      <c r="J118" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K118" s="2">
         <v>203</v>
-      </c>
-      <c r="F118" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G118" s="2">
-        <v>304</v>
-      </c>
-      <c r="H118" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I118" s="2">
-        <v>315</v>
-      </c>
-      <c r="J118" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K118" s="2">
-        <v>209</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
@@ -4063,28 +4094,28 @@
         <v>3</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C119" s="2">
-        <v>102</v>
+        <v>203</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E119" s="2">
-        <v>101</v>
+        <v>209</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="G119" s="2">
-        <v>102</v>
+        <v>203</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="I119" s="2">
-        <v>315</v>
+        <v>203</v>
       </c>
       <c r="J119" s="4" t="s">
         <v>45</v>
@@ -4098,28 +4129,28 @@
         <v>4</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C120" s="2">
         <v>304</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>46</v>
+        <v>13</v>
+      </c>
+      <c r="E120" s="2">
+        <v>308</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G120" s="2">
-        <v>209</v>
+        <v>6</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="I120" s="2">
-        <v>203</v>
+        <v>308</v>
       </c>
       <c r="J120" s="4" t="s">
         <v>5</v>
@@ -4133,16 +4164,16 @@
         <v>5</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C121" s="2">
-        <v>301</v>
+        <v>209</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E121" s="2">
-        <v>316</v>
+        <v>102</v>
       </c>
       <c r="F121" s="4" t="s">
         <v>7</v>
@@ -4151,16 +4182,16 @@
         <v>209</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="I121" s="2">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="J121" s="4" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="K121" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
@@ -4168,34 +4199,30 @@
         <v>6</v>
       </c>
       <c r="B122" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="2">
+        <v>209</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E122" s="2">
+        <v>103</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G122" s="2">
+        <v>209</v>
+      </c>
+      <c r="H122" s="4"/>
+      <c r="I122" s="2"/>
+      <c r="J122" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E122" s="2">
-        <v>209</v>
-      </c>
-      <c r="F122" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H122" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I122" s="2">
-        <v>103</v>
-      </c>
-      <c r="J122" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="K122" s="2" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
@@ -4203,32 +4230,38 @@
         <v>7</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C123" s="2">
-        <v>308</v>
+        <v>6</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="12">
+        <v>314</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="G123" s="2">
-        <v>203</v>
+        <v>101</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="A124" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B124" s="13"/>
-      <c r="C124" s="13"/>
-      <c r="D124" s="13"/>
-      <c r="E124" s="13"/>
-      <c r="F124" s="13"/>
-      <c r="G124" s="13"/>
-      <c r="H124" s="13"/>
-      <c r="I124" s="13"/>
-      <c r="J124" s="13"/>
-      <c r="K124" s="13"/>
+      <c r="A124" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c r="G124" s="14"/>
+      <c r="H124" s="14"/>
+      <c r="I124" s="14"/>
+      <c r="J124" s="14"/>
+      <c r="K124" s="14"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
@@ -4258,10 +4291,10 @@
         <v>1</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C126" s="2">
-        <v>315</v>
+        <v>6</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>7</v>
@@ -4270,22 +4303,22 @@
         <v>209</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>29</v>
+        <v>7</v>
+      </c>
+      <c r="G126" s="2">
+        <v>209</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="I126" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K126" s="2">
-        <v>107</v>
+        <v>316</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
@@ -4293,34 +4326,34 @@
         <v>2</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C127" s="2">
+        <v>308</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127" s="2">
+        <v>209</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G127" s="2">
         <v>304</v>
       </c>
-      <c r="D127" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E127" s="2">
-        <v>308</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G127" s="2">
+      <c r="H127" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I127" s="2">
         <v>107</v>
       </c>
-      <c r="H127" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I127" s="2">
-        <v>209</v>
-      </c>
       <c r="J127" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K127" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
@@ -4328,13 +4361,13 @@
         <v>3</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C128" s="2">
-        <v>107</v>
+        <v>304</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E128" s="2">
         <v>316</v>
@@ -4346,10 +4379,10 @@
         <v>14</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I128" s="2" t="s">
-        <v>29</v>
+        <v>8</v>
+      </c>
+      <c r="I128" s="2">
+        <v>209</v>
       </c>
       <c r="J128" s="4" t="s">
         <v>5</v>
@@ -4363,16 +4396,16 @@
         <v>4</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C129" s="2">
-        <v>107</v>
+        <v>19</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="E129" s="2">
-        <v>107</v>
+        <v>316</v>
       </c>
       <c r="F129" s="4" t="s">
         <v>20</v>
@@ -4381,13 +4414,13 @@
         <v>102</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I129" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
+      </c>
+      <c r="I129" s="2">
+        <v>107</v>
       </c>
       <c r="J129" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K129" s="2">
         <v>209</v>
@@ -4404,28 +4437,28 @@
         <v>14</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="E130" s="2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G130" s="2">
-        <v>304</v>
+        <v>107</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I130" s="2">
-        <v>107</v>
+        <v>302</v>
       </c>
       <c r="J130" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K130" s="2" t="s">
-        <v>29</v>
+        <v>7</v>
+      </c>
+      <c r="K130" s="2">
+        <v>209</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
@@ -4433,30 +4466,34 @@
         <v>6</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C131" s="2">
-        <v>209</v>
-      </c>
-      <c r="D131" s="4"/>
-      <c r="E131" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E131" s="2">
+        <v>101</v>
+      </c>
       <c r="F131" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G131" s="2">
-        <v>209</v>
+        <v>6</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I131" s="2">
-        <v>209</v>
+        <v>6</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="J131" s="4" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="K131" s="2">
-        <v>308</v>
+        <v>107</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
@@ -4464,38 +4501,36 @@
         <v>7</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C132" s="2">
         <v>209</v>
       </c>
-      <c r="F132" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G132" s="2">
-        <v>209</v>
-      </c>
-      <c r="J132" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K132" s="2">
-        <v>103</v>
-      </c>
+      <c r="D132" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E132" s="12">
+        <v>102</v>
+      </c>
+      <c r="F132" s="4"/>
+      <c r="G132" s="2"/>
+      <c r="J132" s="4"/>
+      <c r="K132" s="2"/>
     </row>
     <row r="133" spans="1:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="A133" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B133" s="13"/>
-      <c r="C133" s="13"/>
-      <c r="D133" s="13"/>
-      <c r="E133" s="13"/>
-      <c r="F133" s="13"/>
-      <c r="G133" s="13"/>
-      <c r="H133" s="13"/>
-      <c r="I133" s="13"/>
-      <c r="J133" s="13"/>
-      <c r="K133" s="13"/>
+      <c r="A133" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B133" s="14"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c r="G133" s="14"/>
+      <c r="H133" s="14"/>
+      <c r="I133" s="14"/>
+      <c r="J133" s="14"/>
+      <c r="K133" s="14"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
@@ -4525,24 +4560,28 @@
         <v>1</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
+      </c>
+      <c r="C135" s="2">
+        <v>102</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="E135" s="2">
+        <v>302</v>
+      </c>
+      <c r="F135" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G135" s="2">
         <v>207</v>
       </c>
-      <c r="F135" s="6"/>
-      <c r="G135" s="2"/>
       <c r="H135" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I135" s="2">
-        <v>308</v>
+        <v>201</v>
       </c>
       <c r="J135" s="4" t="s">
         <v>5</v>
@@ -4556,16 +4595,16 @@
         <v>2</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C136" s="2">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E136" s="2">
-        <v>207</v>
+        <v>103</v>
       </c>
       <c r="F136" s="4" t="s">
         <v>12</v>
@@ -4574,16 +4613,16 @@
         <v>14</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I136" s="2">
-        <v>107</v>
+        <v>201</v>
       </c>
       <c r="J136" s="4" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K136" s="2">
-        <v>107</v>
+        <v>316</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
@@ -4591,34 +4630,34 @@
         <v>3</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C137" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E137" s="2">
-        <v>302</v>
+        <v>107</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G137" s="2">
-        <v>207</v>
+        <v>102</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I137" s="2">
-        <v>207</v>
+        <v>19</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="J137" s="4" t="s">
         <v>6</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
@@ -4632,22 +4671,22 @@
         <v>14</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
+      </c>
+      <c r="E138" s="2">
+        <v>107</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="G138" s="2">
-        <v>107</v>
+        <v>308</v>
       </c>
       <c r="H138" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J138" s="4" t="s">
         <v>7</v>
@@ -4661,95 +4700,93 @@
         <v>5</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C139" s="2">
         <v>304</v>
       </c>
       <c r="D139" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E139" s="2">
+        <v>207</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H139" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E139" s="2">
+      <c r="I139" s="2">
         <v>308</v>
       </c>
-      <c r="F139" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G139" s="2">
+      <c r="J139" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K139" s="2">
         <v>107</v>
-      </c>
-      <c r="H139" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I139" s="2">
-        <v>209</v>
-      </c>
-      <c r="J139" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K139" s="2">
-        <v>207</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>6</v>
       </c>
-      <c r="B140" s="4"/>
-      <c r="C140" s="2"/>
+      <c r="B140" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140" s="2">
+        <v>207</v>
+      </c>
       <c r="D140" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E140" s="2">
+        <v>207</v>
+      </c>
+      <c r="F140" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E140" s="2">
-        <v>107</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="G140" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="I140" s="2">
-        <v>304</v>
+        <v>207</v>
       </c>
       <c r="J140" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K140" s="2">
-        <v>303</v>
+        <v>101</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>7</v>
       </c>
-      <c r="D141" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E141" s="2">
-        <v>107</v>
-      </c>
-      <c r="F141" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G141" s="2">
-        <v>103</v>
-      </c>
+      <c r="B141" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141" s="12">
+        <v>207</v>
+      </c>
+      <c r="D141" s="4"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="2"/>
       <c r="H141" s="4" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="I141" s="2">
-        <v>207</v>
-      </c>
-      <c r="J141" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K141" s="2">
-        <v>303</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="J141" s="4"/>
+      <c r="K141" s="2"/>
     </row>
     <row r="142" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
@@ -4774,19 +4811,19 @@
       <c r="K143" s="2"/>
     </row>
     <row r="144" spans="1:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="A144" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B144" s="13"/>
-      <c r="C144" s="13"/>
-      <c r="D144" s="13"/>
-      <c r="E144" s="13"/>
-      <c r="F144" s="13"/>
-      <c r="G144" s="13"/>
-      <c r="H144" s="13"/>
-      <c r="I144" s="13"/>
-      <c r="J144" s="13"/>
-      <c r="K144" s="13"/>
+      <c r="A144" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B144" s="14"/>
+      <c r="C144" s="14"/>
+      <c r="D144" s="14"/>
+      <c r="E144" s="14"/>
+      <c r="F144" s="14"/>
+      <c r="G144" s="14"/>
+      <c r="H144" s="14"/>
+      <c r="I144" s="14"/>
+      <c r="J144" s="14"/>
+      <c r="K144" s="14"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
@@ -4822,59 +4859,63 @@
         <v>305</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
+      </c>
+      <c r="E146" s="2">
+        <v>201</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="G146" s="2">
-        <v>305</v>
+        <v>109</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I146" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J146" s="6"/>
-      <c r="K146" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="I146" s="2">
+        <v>106</v>
+      </c>
+      <c r="J146" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K146" s="2">
+        <v>303</v>
+      </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>2</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C147" s="2">
         <v>305</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E147" s="2">
         <v>301</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G147" s="2">
-        <v>301</v>
+        <v>19</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="H147" s="4" t="s">
         <v>45</v>
       </c>
       <c r="I147" s="2">
-        <v>304</v>
+        <v>106</v>
       </c>
       <c r="J147" s="4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K147" s="2">
-        <v>109</v>
+        <v>305</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
@@ -4888,28 +4929,28 @@
         <v>14</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E148" s="2">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G148" s="2">
-        <v>308</v>
+        <v>6</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="H148" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I148" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I148" s="2">
-        <v>109</v>
-      </c>
       <c r="J148" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K148" s="2">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
@@ -4917,22 +4958,22 @@
         <v>4</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C149" s="2">
-        <v>301</v>
+        <v>6</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E149" s="2">
         <v>306</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="G149" s="2">
+        <v>305</v>
       </c>
       <c r="H149" s="4" t="s">
         <v>12</v>
@@ -4941,10 +4982,10 @@
         <v>14</v>
       </c>
       <c r="J149" s="4" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="K149" s="2">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
@@ -4952,16 +4993,16 @@
         <v>5</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C150" s="2">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E150" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F150" s="4" t="s">
         <v>5</v>
@@ -4970,16 +5011,16 @@
         <v>11</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="I150" s="2">
-        <v>305</v>
+        <v>103</v>
       </c>
       <c r="J150" s="4" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="K150" s="2">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
@@ -4987,34 +5028,34 @@
         <v>6</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C151" s="2">
-        <v>109</v>
+        <v>306</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="E151" s="2">
+        <v>106</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G151" s="2">
+        <v>211</v>
+      </c>
+      <c r="H151" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I151" s="2">
         <v>304</v>
       </c>
-      <c r="F151" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G151" s="2">
+      <c r="J151" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K151" s="2">
         <v>301</v>
-      </c>
-      <c r="H151" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I151" s="2">
-        <v>305</v>
-      </c>
-      <c r="J151" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K151" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
@@ -5022,44 +5063,42 @@
         <v>7</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C152" s="2">
+        <v>201</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E152" s="12">
+        <v>304</v>
+      </c>
+      <c r="F152" s="4"/>
+      <c r="G152" s="2"/>
+      <c r="H152" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I152" s="2">
         <v>109</v>
       </c>
-      <c r="F152" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G152" s="2">
-        <v>301</v>
-      </c>
-      <c r="H152" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I152" s="2">
-        <v>314</v>
-      </c>
-      <c r="J152" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K152" s="2">
-        <v>304</v>
-      </c>
+      <c r="J152" s="4"/>
+      <c r="K152" s="2"/>
     </row>
     <row r="153" spans="1:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="A153" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B153" s="13"/>
-      <c r="C153" s="13"/>
-      <c r="D153" s="13"/>
-      <c r="E153" s="13"/>
-      <c r="F153" s="13"/>
-      <c r="G153" s="13"/>
-      <c r="H153" s="13"/>
-      <c r="I153" s="13"/>
-      <c r="J153" s="13"/>
-      <c r="K153" s="13"/>
+      <c r="A153" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B153" s="14"/>
+      <c r="C153" s="14"/>
+      <c r="D153" s="14"/>
+      <c r="E153" s="14"/>
+      <c r="F153" s="14"/>
+      <c r="G153" s="14"/>
+      <c r="H153" s="14"/>
+      <c r="I153" s="14"/>
+      <c r="J153" s="14"/>
+      <c r="K153" s="14"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
@@ -5089,62 +5128,66 @@
         <v>1</v>
       </c>
       <c r="B155" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C155" s="2">
+        <v>109</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E155" s="2">
+        <v>104</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G155" s="2">
+        <v>305</v>
+      </c>
+      <c r="H155" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C155" s="2">
+      <c r="I155" s="2">
         <v>307</v>
       </c>
-      <c r="D155" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E155" s="2">
-        <v>307</v>
-      </c>
-      <c r="F155" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G155" s="2">
+      <c r="J155" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K155" s="2">
         <v>104</v>
       </c>
-      <c r="H155" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I155" s="2">
-        <v>104</v>
-      </c>
-      <c r="J155" s="6"/>
-      <c r="K155" s="2"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>2</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C156" s="2">
-        <v>103</v>
+        <v>12</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E156" s="2">
-        <v>306</v>
+        <v>104</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="G156" s="2">
+        <v>305</v>
       </c>
       <c r="H156" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J156" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K156" s="2">
         <v>304</v>
@@ -5155,31 +5198,31 @@
         <v>3</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C157" s="2">
-        <v>305</v>
+        <v>6</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E157" s="2">
-        <v>109</v>
+        <v>306</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="G157" s="2">
-        <v>314</v>
+        <v>104</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I157" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
+      </c>
+      <c r="I157" s="2">
+        <v>104</v>
       </c>
       <c r="J157" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K157" s="2">
         <v>306</v>
@@ -5190,28 +5233,28 @@
         <v>4</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C158" s="2">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G158" s="2">
-        <v>304</v>
+        <v>19</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="I158" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J158" s="4" t="s">
         <v>7</v>
@@ -5225,34 +5268,34 @@
         <v>5</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>14</v>
+        <v>45</v>
+      </c>
+      <c r="C159" s="2">
+        <v>104</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E159" s="2">
         <v>304</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="G159" s="2">
+        <v>304</v>
+      </c>
+      <c r="H159" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I159" s="2">
+        <v>314</v>
+      </c>
+      <c r="J159" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K159" s="2">
         <v>305</v>
-      </c>
-      <c r="H159" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I159" s="2">
-        <v>104</v>
-      </c>
-      <c r="J159" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K159" s="2">
-        <v>104</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
@@ -5260,13 +5303,13 @@
         <v>6</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
+      </c>
+      <c r="C160" s="2">
+        <v>104</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E160" s="2">
         <v>305</v>
@@ -5278,61 +5321,57 @@
         <v>11</v>
       </c>
       <c r="H160" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I160" s="2">
+        <v>101</v>
+      </c>
+      <c r="J160" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I160" s="2">
+      <c r="K160" s="2">
         <v>314</v>
-      </c>
-      <c r="J160" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K160" s="2">
-        <v>104</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>7</v>
       </c>
-      <c r="B161" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C161" s="2">
-        <v>104</v>
-      </c>
+      <c r="B161" s="4"/>
+      <c r="C161" s="2"/>
       <c r="D161" s="4" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E161" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I161" s="2">
-        <v>305</v>
+        <v>12</v>
+      </c>
+      <c r="I161" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="J161" s="4" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="K161" s="2">
-        <v>305</v>
+        <v>314</v>
       </c>
     </row>
     <row r="162" spans="1:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="A162" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B162" s="13"/>
-      <c r="C162" s="13"/>
-      <c r="D162" s="13"/>
-      <c r="E162" s="13"/>
-      <c r="F162" s="13"/>
-      <c r="G162" s="13"/>
-      <c r="H162" s="13"/>
-      <c r="I162" s="13"/>
-      <c r="J162" s="13"/>
-      <c r="K162" s="13"/>
+      <c r="A162" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B162" s="14"/>
+      <c r="C162" s="14"/>
+      <c r="D162" s="14"/>
+      <c r="E162" s="14"/>
+      <c r="F162" s="14"/>
+      <c r="G162" s="14"/>
+      <c r="H162" s="14"/>
+      <c r="I162" s="14"/>
+      <c r="J162" s="14"/>
+      <c r="K162" s="14"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
@@ -5362,34 +5401,34 @@
         <v>1</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="C164" s="2">
-        <v>202</v>
+        <v>307</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E164" s="2">
         <v>306</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G164" s="2">
-        <v>304</v>
+        <v>202</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="I164" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="J164" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K164" s="2">
-        <v>307</v>
+        <v>19</v>
+      </c>
+      <c r="K164" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
@@ -5400,31 +5439,31 @@
         <v>6</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="E165" s="2">
+        <v>109</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G165" s="2">
+        <v>6</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H165" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I165" s="2">
         <v>305</v>
       </c>
-      <c r="H165" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I165" s="2">
+      <c r="J165" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K165" s="2">
         <v>105</v>
-      </c>
-      <c r="J165" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K165" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
@@ -5432,31 +5471,31 @@
         <v>3</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C166" s="2">
         <v>202</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E166" s="2">
-        <v>304</v>
+        <v>202</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G166" s="2">
+        <v>12</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H166" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I166" s="2">
         <v>305</v>
       </c>
-      <c r="H166" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I166" s="2">
-        <v>101</v>
-      </c>
       <c r="J166" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K166" s="2">
         <v>304</v>
@@ -5467,34 +5506,34 @@
         <v>4</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C167" s="2">
+        <v>314</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E167" s="2">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G167" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="I167" s="2">
-        <v>305</v>
+        <v>202</v>
       </c>
       <c r="J167" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K167" s="2">
-        <v>202</v>
+        <v>6</v>
+      </c>
+      <c r="K167" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
@@ -5502,22 +5541,22 @@
         <v>5</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C168" s="2">
+        <v>314</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E168" s="2">
         <v>305</v>
       </c>
-      <c r="D168" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E168" s="2">
-        <v>202</v>
-      </c>
       <c r="F168" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
+      </c>
+      <c r="G168" s="2">
+        <v>105</v>
       </c>
       <c r="H168" s="4" t="s">
         <v>12</v>
@@ -5526,10 +5565,10 @@
         <v>14</v>
       </c>
       <c r="J168" s="4" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="K168" s="2">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
@@ -5537,75 +5576,77 @@
         <v>6</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C169" s="2">
-        <v>305</v>
+        <v>109</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E169" s="2">
+        <v>304</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G169" s="2">
+        <v>314</v>
+      </c>
+      <c r="H169" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I169" s="2">
+        <v>307</v>
+      </c>
+      <c r="J169" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K169" s="2">
         <v>202</v>
       </c>
-      <c r="F169" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G169" s="2">
-        <v>307</v>
-      </c>
-      <c r="H169" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I169" s="2">
-        <v>109</v>
-      </c>
-      <c r="J169" s="4"/>
-      <c r="K169" s="2"/>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>7</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="C170" s="2">
-        <v>314</v>
-      </c>
-      <c r="D170" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E170" s="2">
-        <v>305</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="D170" s="4"/>
+      <c r="E170" s="2"/>
       <c r="F170" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G170" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H170" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I170" s="2">
-        <v>103</v>
+      <c r="H170" s="4"/>
+      <c r="I170" s="2"/>
+      <c r="J170" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K170" s="12">
+        <v>305</v>
       </c>
     </row>
     <row r="171" spans="1:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="A171" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B171" s="13"/>
-      <c r="C171" s="13"/>
-      <c r="D171" s="13"/>
-      <c r="E171" s="13"/>
-      <c r="F171" s="13"/>
-      <c r="G171" s="13"/>
-      <c r="H171" s="13"/>
-      <c r="I171" s="13"/>
-      <c r="J171" s="13"/>
-      <c r="K171" s="13"/>
+      <c r="A171" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B171" s="14"/>
+      <c r="C171" s="14"/>
+      <c r="D171" s="14"/>
+      <c r="E171" s="14"/>
+      <c r="F171" s="14"/>
+      <c r="G171" s="14"/>
+      <c r="H171" s="14"/>
+      <c r="I171" s="14"/>
+      <c r="J171" s="14"/>
+      <c r="K171" s="14"/>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="2"/>
@@ -5641,28 +5682,28 @@
         <v>314</v>
       </c>
       <c r="D173" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E173" s="2">
+        <v>105</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G173" s="2">
+        <v>103</v>
+      </c>
+      <c r="H173" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I173" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E173" s="2">
-        <v>109</v>
-      </c>
-      <c r="F173" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G173" s="2">
-        <v>302</v>
-      </c>
-      <c r="H173" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I173" s="2">
+      <c r="J173" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K173" s="2">
         <v>208</v>
-      </c>
-      <c r="J173" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K173" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
@@ -5670,31 +5711,31 @@
         <v>2</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="C174" s="2">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E174" s="2">
         <v>304</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G174" s="2">
-        <v>313</v>
+        <v>208</v>
       </c>
       <c r="H174" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I174" s="2">
-        <v>101</v>
+        <v>314</v>
       </c>
       <c r="J174" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K174" s="2">
         <v>302</v>
@@ -5705,31 +5746,31 @@
         <v>3</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>66</v>
+        <v>52</v>
+      </c>
+      <c r="E175" s="2">
+        <v>103</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G175" s="2">
         <v>105</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="I175" s="2">
         <v>314</v>
       </c>
       <c r="J175" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K175" s="2">
         <v>105</v>
@@ -5740,34 +5781,34 @@
         <v>4</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C176" s="2">
-        <v>101</v>
+        <v>206</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="E176" s="2">
-        <v>103</v>
+        <v>307</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="G176" s="2">
-        <v>314</v>
+        <v>105</v>
       </c>
       <c r="H176" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I176" s="2">
         <v>105</v>
       </c>
       <c r="J176" s="4" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="K176" s="2">
-        <v>105</v>
+        <v>303</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
@@ -5775,10 +5816,10 @@
         <v>5</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C177" s="2">
-        <v>307</v>
+        <v>6</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="D177" s="4" t="s">
         <v>5</v>
@@ -5787,22 +5828,22 @@
         <v>11</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="G177" s="2">
-        <v>105</v>
+        <v>314</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I177" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="J177" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K177" s="2">
-        <v>209</v>
+        <v>6</v>
+      </c>
+      <c r="K177" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
@@ -5816,16 +5857,16 @@
         <v>14</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E178" s="2">
-        <v>208</v>
+        <v>19</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>64</v>
+        <v>13</v>
+      </c>
+      <c r="G178" s="2">
+        <v>307</v>
       </c>
       <c r="H178" s="4" t="s">
         <v>12</v>
@@ -5834,7 +5875,7 @@
         <v>14</v>
       </c>
       <c r="J178" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K178" s="2">
         <v>304</v>
@@ -5844,39 +5885,43 @@
       <c r="A179" s="2">
         <v>7</v>
       </c>
-      <c r="B179" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C179" s="2">
-        <v>105</v>
-      </c>
+      <c r="B179" s="4"/>
+      <c r="C179" s="2"/>
       <c r="D179" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E179" s="2">
         <v>209</v>
       </c>
-      <c r="F179" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G179" s="2">
-        <v>208</v>
+      <c r="F179" s="4"/>
+      <c r="G179" s="2"/>
+      <c r="H179" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I179" s="12">
+        <v>105</v>
+      </c>
+      <c r="J179" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K179" s="12">
+        <v>209</v>
       </c>
     </row>
     <row r="180" spans="1:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="A180" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B180" s="13"/>
-      <c r="C180" s="13"/>
-      <c r="D180" s="13"/>
-      <c r="E180" s="13"/>
-      <c r="F180" s="13"/>
-      <c r="G180" s="13"/>
-      <c r="H180" s="13"/>
-      <c r="I180" s="13"/>
-      <c r="J180" s="13"/>
-      <c r="K180" s="13"/>
+      <c r="A180" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B180" s="14"/>
+      <c r="C180" s="14"/>
+      <c r="D180" s="14"/>
+      <c r="E180" s="14"/>
+      <c r="F180" s="14"/>
+      <c r="G180" s="14"/>
+      <c r="H180" s="14"/>
+      <c r="I180" s="14"/>
+      <c r="J180" s="14"/>
+      <c r="K180" s="14"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="2"/>
@@ -5909,27 +5954,27 @@
         <v>7</v>
       </c>
       <c r="C182" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E182" s="2">
         <v>304</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G182" s="2">
-        <v>105</v>
+        <v>6</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="H182" s="6"/>
       <c r="I182" s="2"/>
       <c r="J182" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="K182" s="2">
-        <v>207</v>
+        <v>314</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.3">
@@ -5937,34 +5982,34 @@
         <v>2</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C183" s="2">
-        <v>101</v>
+        <v>314</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E183" s="2">
-        <v>105</v>
+        <v>302</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G183" s="2">
         <v>105</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="I183" s="2">
-        <v>314</v>
+        <v>109</v>
       </c>
       <c r="J183" s="4" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="K183" s="2">
-        <v>103</v>
+        <v>307</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
@@ -5972,34 +6017,34 @@
         <v>3</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>66</v>
+        <v>15</v>
+      </c>
+      <c r="C184" s="2">
+        <v>314</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="E184" s="2">
-        <v>105</v>
+        <v>305</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>64</v>
+        <v>8</v>
+      </c>
+      <c r="G184" s="2">
+        <v>305</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I184" s="2">
         <v>302</v>
       </c>
       <c r="J184" s="4" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="K184" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.3">
@@ -6013,28 +6058,28 @@
         <v>105</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E185" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G185" s="2">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I185" s="2">
-        <v>307</v>
+        <v>207</v>
       </c>
       <c r="J185" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K185" s="2" t="s">
-        <v>60</v>
+        <v>43</v>
+      </c>
+      <c r="K185" s="2">
+        <v>105</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
@@ -6042,34 +6087,34 @@
         <v>5</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C186" s="2">
         <v>105</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E186" s="2">
-        <v>302</v>
+        <v>6</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G186" s="2">
-        <v>109</v>
+        <v>19</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I186" s="8">
         <v>304</v>
       </c>
       <c r="J186" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K186" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
+      </c>
+      <c r="K186" s="2">
+        <v>105</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.3">
@@ -6077,10 +6122,10 @@
         <v>6</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C187" s="2">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D187" s="4" t="s">
         <v>5</v>
@@ -6092,19 +6137,19 @@
         <v>7</v>
       </c>
       <c r="G187" s="2">
-        <v>305</v>
+        <v>207</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I187" s="2">
         <v>105</v>
       </c>
       <c r="J187" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K187" s="2">
-        <v>314</v>
+        <v>6</v>
+      </c>
+      <c r="K187" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.3">
@@ -6118,40 +6163,46 @@
         <v>14</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E188" s="2">
-        <v>314</v>
-      </c>
-      <c r="F188" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F188" s="4"/>
+      <c r="G188" s="2"/>
+      <c r="H188" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I188" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="12">
         <v>8</v>
       </c>
-      <c r="G188" s="2">
-        <v>207</v>
-      </c>
-      <c r="H188" s="4" t="s">
+      <c r="H189" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I188" s="2" t="s">
+      <c r="I189" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="190" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="191" spans="1:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="A191" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B191" s="13"/>
-      <c r="C191" s="13"/>
-      <c r="D191" s="13"/>
-      <c r="E191" s="13"/>
-      <c r="F191" s="13"/>
-      <c r="G191" s="13"/>
-      <c r="H191" s="13"/>
-      <c r="I191" s="13"/>
-      <c r="J191" s="13"/>
-      <c r="K191" s="13"/>
+      <c r="A191" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B191" s="14"/>
+      <c r="C191" s="14"/>
+      <c r="D191" s="14"/>
+      <c r="E191" s="14"/>
+      <c r="F191" s="14"/>
+      <c r="G191" s="14"/>
+      <c r="H191" s="14"/>
+      <c r="I191" s="14"/>
+      <c r="J191" s="14"/>
+      <c r="K191" s="14"/>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="2"/>
@@ -6181,16 +6232,16 @@
         <v>1</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="C193" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E193" s="2">
-        <v>205</v>
+        <v>301</v>
       </c>
       <c r="F193" s="6"/>
       <c r="G193" s="2"/>
@@ -6201,10 +6252,10 @@
         <v>301</v>
       </c>
       <c r="J193" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K193" s="2" t="s">
-        <v>75</v>
+        <v>45</v>
+      </c>
+      <c r="K193" s="2">
+        <v>205</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.3">
@@ -6212,28 +6263,28 @@
         <v>2</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C194" s="2">
         <v>205</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="E194" s="2">
+        <v>210</v>
+      </c>
+      <c r="F194" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G194" s="2">
+        <v>109</v>
+      </c>
+      <c r="H194" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I194" s="2">
         <v>205</v>
-      </c>
-      <c r="F194" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G194" s="2">
-        <v>302</v>
-      </c>
-      <c r="H194" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I194" s="2">
-        <v>210</v>
       </c>
       <c r="J194" s="4" t="s">
         <v>12</v>
@@ -6250,28 +6301,28 @@
         <v>6</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D195" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E195" s="2">
+        <v>210</v>
+      </c>
+      <c r="F195" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E195" s="2">
-        <v>106</v>
-      </c>
-      <c r="F195" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G195" s="2" t="s">
-        <v>75</v>
+      <c r="G195" s="2">
+        <v>109</v>
       </c>
       <c r="H195" s="4" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="I195" s="2">
-        <v>205</v>
+        <v>316</v>
       </c>
       <c r="J195" s="4" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="K195" s="2">
         <v>210</v>
@@ -6282,7 +6333,7 @@
         <v>4</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C196" s="2">
         <v>316</v>
@@ -6294,22 +6345,22 @@
         <v>14</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G196" s="2">
-        <v>303</v>
+        <v>205</v>
       </c>
       <c r="H196" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I196" s="2">
-        <v>205</v>
+        <v>107</v>
       </c>
       <c r="J196" s="4" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="K196" s="2">
-        <v>109</v>
+        <v>210</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.3">
@@ -6317,31 +6368,31 @@
         <v>5</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C197" s="2">
-        <v>109</v>
+        <v>316</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E197" s="2">
-        <v>305</v>
+        <v>6</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G197" s="2">
         <v>205</v>
       </c>
       <c r="H197" s="4" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="I197" s="2">
-        <v>210</v>
+        <v>107</v>
       </c>
       <c r="J197" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K197" s="2">
         <v>302</v>
@@ -6352,31 +6403,31 @@
         <v>6</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C198" s="2">
-        <v>301</v>
+        <v>101</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="E198" s="2">
+        <v>205</v>
+      </c>
+      <c r="F198" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G198" s="2">
         <v>210</v>
       </c>
-      <c r="F198" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G198" s="2">
-        <v>205</v>
-      </c>
       <c r="H198" s="4" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="I198" s="2">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="J198" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K198" s="2">
         <v>302</v>
@@ -6387,22 +6438,24 @@
         <v>7</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="C199" s="2">
+        <v>301</v>
+      </c>
+      <c r="D199" s="4"/>
+      <c r="E199" s="2"/>
+      <c r="F199" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J199" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K199" s="12">
         <v>103</v>
-      </c>
-      <c r="D199" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E199" s="2">
-        <v>210</v>
-      </c>
-      <c r="F199" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G199" s="2">
-        <v>316</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.3">
@@ -6413,23 +6466,23 @@
         <v>5</v>
       </c>
       <c r="G200" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="201" spans="1:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="A201" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B201" s="13"/>
-      <c r="C201" s="13"/>
-      <c r="D201" s="13"/>
-      <c r="E201" s="13"/>
-      <c r="F201" s="13"/>
-      <c r="G201" s="13"/>
-      <c r="H201" s="13"/>
-      <c r="I201" s="13"/>
-      <c r="J201" s="13"/>
-      <c r="K201" s="13"/>
+      <c r="A201" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B201" s="14"/>
+      <c r="C201" s="14"/>
+      <c r="D201" s="14"/>
+      <c r="E201" s="14"/>
+      <c r="F201" s="14"/>
+      <c r="G201" s="14"/>
+      <c r="H201" s="14"/>
+      <c r="I201" s="14"/>
+      <c r="J201" s="14"/>
+      <c r="K201" s="14"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="2"/>
@@ -6459,31 +6512,31 @@
         <v>1</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C203" s="2">
         <v>302</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E203" s="2">
-        <v>103</v>
+        <v>303</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G203" s="2">
-        <v>212</v>
+        <v>316</v>
       </c>
       <c r="H203" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I203" s="2">
-        <v>205</v>
+        <v>302</v>
       </c>
       <c r="J203" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K203" s="2">
         <v>212</v>
@@ -6494,34 +6547,34 @@
         <v>2</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="C204" s="2">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="E204" s="2">
-        <v>303</v>
+        <v>212</v>
       </c>
       <c r="F204" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G204" s="2">
+        <v>205</v>
+      </c>
+      <c r="H204" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I204" s="2">
+        <v>316</v>
+      </c>
+      <c r="J204" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G204" s="2">
+      <c r="K204" s="2">
         <v>212</v>
-      </c>
-      <c r="H204" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I204" s="2">
-        <v>205</v>
-      </c>
-      <c r="J204" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K204" s="2">
-        <v>307</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.3">
@@ -6535,22 +6588,22 @@
         <v>205</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="E205" s="2">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G205" s="2">
-        <v>302</v>
+        <v>205</v>
       </c>
       <c r="H205" s="4" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="I205" s="2">
-        <v>103</v>
+        <v>213</v>
       </c>
       <c r="J205" s="4" t="s">
         <v>12</v>
@@ -6564,7 +6617,7 @@
         <v>4</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C206" s="2">
         <v>303</v>
@@ -6573,25 +6626,25 @@
         <v>15</v>
       </c>
       <c r="E206" s="2">
-        <v>316</v>
+        <v>212</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G206" s="2">
-        <v>316</v>
+        <v>212</v>
       </c>
       <c r="H206" s="4" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I206" s="2">
-        <v>316</v>
+        <v>205</v>
       </c>
       <c r="J206" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K206" s="2">
-        <v>205</v>
+        <v>6</v>
+      </c>
+      <c r="K206" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.3">
@@ -6599,10 +6652,10 @@
         <v>5</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C207" s="2">
-        <v>101</v>
+        <v>307</v>
       </c>
       <c r="D207" s="4" t="s">
         <v>12</v>
@@ -6611,19 +6664,19 @@
         <v>14</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G207" s="2">
-        <v>307</v>
+        <v>212</v>
       </c>
       <c r="H207" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I207" s="2">
         <v>303</v>
       </c>
       <c r="J207" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K207" s="2">
         <v>205</v>
@@ -6634,23 +6687,19 @@
         <v>6</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
+      </c>
+      <c r="C208" s="2">
+        <v>103</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E208" s="2">
-        <v>205</v>
-      </c>
-      <c r="F208" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G208" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="F208" s="4"/>
+      <c r="G208" s="2"/>
       <c r="H208" s="4" t="s">
         <v>5</v>
       </c>
@@ -6658,10 +6707,10 @@
         <v>11</v>
       </c>
       <c r="J208" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K208" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
+      </c>
+      <c r="K208" s="2">
+        <v>205</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.3">
@@ -6669,16 +6718,16 @@
         <v>7</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C209" s="2">
-        <v>212</v>
+        <v>6</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E209" s="2">
-        <v>205</v>
+        <v>6</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H209" s="4" t="s">
         <v>5</v>
@@ -6686,21 +6735,27 @@
       <c r="I209" t="s">
         <v>11</v>
       </c>
+      <c r="J209" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K209" s="12">
+        <v>303</v>
+      </c>
     </row>
     <row r="210" spans="1:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="A210" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B210" s="13"/>
-      <c r="C210" s="13"/>
-      <c r="D210" s="13"/>
-      <c r="E210" s="13"/>
-      <c r="F210" s="13"/>
-      <c r="G210" s="13"/>
-      <c r="H210" s="13"/>
-      <c r="I210" s="13"/>
-      <c r="J210" s="13"/>
-      <c r="K210" s="13"/>
+      <c r="A210" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B210" s="14"/>
+      <c r="C210" s="14"/>
+      <c r="D210" s="14"/>
+      <c r="E210" s="14"/>
+      <c r="F210" s="14"/>
+      <c r="G210" s="14"/>
+      <c r="H210" s="14"/>
+      <c r="I210" s="14"/>
+      <c r="J210" s="14"/>
+      <c r="K210" s="14"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="2"/>
@@ -6730,19 +6785,15 @@
         <v>1</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C212" s="2">
         <v>303</v>
       </c>
-      <c r="D212" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E212" s="2">
-        <v>303</v>
-      </c>
+      <c r="D212" s="4"/>
+      <c r="E212" s="2"/>
       <c r="F212" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G212" s="2">
         <v>201</v>
@@ -6750,10 +6801,10 @@
       <c r="H212" s="6"/>
       <c r="I212" s="2"/>
       <c r="J212" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K212" s="2" t="s">
-        <v>14</v>
+        <v>46</v>
+      </c>
+      <c r="K212" s="2">
+        <v>302</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.3">
@@ -6761,27 +6812,27 @@
         <v>2</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C213" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="E213" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="G213" s="2">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="H213" s="6"/>
       <c r="I213" s="2"/>
       <c r="J213" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K213" s="2">
         <v>205</v>
@@ -6792,34 +6843,34 @@
         <v>3</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C214" s="2">
-        <v>316</v>
+        <v>101</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>78</v>
+        <v>20</v>
+      </c>
+      <c r="E214" s="2">
+        <v>109</v>
       </c>
       <c r="F214" s="4" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="G214" s="2">
+        <v>212</v>
+      </c>
+      <c r="H214" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I214" s="2">
         <v>205</v>
       </c>
-      <c r="H214" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I214" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="J214" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K214" s="2">
-        <v>205</v>
+        <v>6</v>
+      </c>
+      <c r="K214" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.3">
@@ -6833,28 +6884,28 @@
         <v>205</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E215" s="2">
         <v>205</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="G215" s="2">
-        <v>103</v>
+        <v>316</v>
       </c>
       <c r="H215" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I215" s="2">
         <v>302</v>
       </c>
       <c r="J215" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K215" s="2" t="s">
-        <v>78</v>
+        <v>13</v>
+      </c>
+      <c r="K215" s="2">
+        <v>307</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.3">
@@ -6868,28 +6919,28 @@
         <v>212</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E216" s="2">
         <v>205</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G216" s="2">
-        <v>316</v>
+        <v>6</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="H216" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I216" s="2">
-        <v>316</v>
+        <v>212</v>
       </c>
       <c r="J216" s="4" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="K216" s="2">
-        <v>307</v>
+        <v>103</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.3">
@@ -6897,34 +6948,34 @@
         <v>6</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C217" s="2">
         <v>212</v>
       </c>
       <c r="D217" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E217" s="2">
+        <v>316</v>
+      </c>
+      <c r="F217" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G217" s="2">
+        <v>205</v>
+      </c>
+      <c r="H217" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I217" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J217" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E217" s="2" t="s">
+      <c r="K217" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F217" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G217" s="2">
-        <v>212</v>
-      </c>
-      <c r="H217" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I217" s="2">
-        <v>101</v>
-      </c>
-      <c r="J217" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K217" s="2">
-        <v>212</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.3">
@@ -6932,19 +6983,21 @@
         <v>7</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C218" s="2">
-        <v>101</v>
-      </c>
-      <c r="F218" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G218" s="2">
-        <v>212</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="D218" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E218" s="12">
+        <v>316</v>
+      </c>
+      <c r="F218" s="4"/>
+      <c r="G218" s="2"/>
       <c r="H218" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I218" s="2">
         <v>303</v>
@@ -6954,6 +7007,12 @@
       <c r="A219" s="2">
         <v>8</v>
       </c>
+      <c r="D219" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E219" t="s">
+        <v>14</v>
+      </c>
       <c r="H219" s="4" t="s">
         <v>5</v>
       </c>
@@ -6973,19 +7032,19 @@
       </c>
     </row>
     <row r="221" spans="1:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="A221" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B221" s="13"/>
-      <c r="C221" s="13"/>
-      <c r="D221" s="13"/>
-      <c r="E221" s="13"/>
-      <c r="F221" s="13"/>
-      <c r="G221" s="13"/>
-      <c r="H221" s="13"/>
-      <c r="I221" s="13"/>
-      <c r="J221" s="13"/>
-      <c r="K221" s="13"/>
+      <c r="A221" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B221" s="14"/>
+      <c r="C221" s="14"/>
+      <c r="D221" s="14"/>
+      <c r="E221" s="14"/>
+      <c r="F221" s="14"/>
+      <c r="G221" s="14"/>
+      <c r="H221" s="14"/>
+      <c r="I221" s="14"/>
+      <c r="J221" s="14"/>
+      <c r="K221" s="14"/>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="2"/>
@@ -7015,13 +7074,13 @@
         <v>1</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C223" s="2">
-        <v>105</v>
+        <v>210</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="E223" s="2">
         <v>105</v>
@@ -7029,16 +7088,16 @@
       <c r="F223" s="6"/>
       <c r="G223" s="2"/>
       <c r="H223" s="4" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="I223" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J223" s="4" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="K223" s="2">
-        <v>210</v>
+        <v>315</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.3">
@@ -7046,28 +7105,28 @@
         <v>2</v>
       </c>
       <c r="B224" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C224" s="2">
+        <v>210</v>
+      </c>
+      <c r="D224" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E224" s="2">
+        <v>105</v>
+      </c>
+      <c r="F224" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C224" s="2">
+      <c r="G224" s="2">
         <v>315</v>
       </c>
-      <c r="D224" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E224" s="2">
-        <v>315</v>
-      </c>
-      <c r="F224" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G224" s="2">
-        <v>201</v>
-      </c>
       <c r="H224" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I224" s="2" t="s">
-        <v>30</v>
+        <v>66</v>
+      </c>
+      <c r="I224" s="2">
+        <v>213</v>
       </c>
       <c r="J224" s="4" t="s">
         <v>5</v>
@@ -7081,34 +7140,34 @@
         <v>3</v>
       </c>
       <c r="B225" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C225" s="2">
+        <v>302</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E225" s="2">
+        <v>105</v>
+      </c>
+      <c r="F225" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C225" s="2">
+      <c r="G225" s="2">
         <v>315</v>
       </c>
-      <c r="D225" s="4" t="s">
+      <c r="H225" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I225" s="2">
+        <v>315</v>
+      </c>
+      <c r="J225" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E225" s="2">
+      <c r="K225" s="2">
         <v>307</v>
-      </c>
-      <c r="F225" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G225" s="2">
-        <v>210</v>
-      </c>
-      <c r="H225" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I225" s="2">
-        <v>105</v>
-      </c>
-      <c r="J225" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K225" s="2">
-        <v>302</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.3">
@@ -7116,28 +7175,28 @@
         <v>4</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C226" s="2">
-        <v>305</v>
+        <v>6</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E226" s="2">
         <v>302</v>
       </c>
       <c r="F226" s="4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G226" s="2">
-        <v>210</v>
+        <v>109</v>
       </c>
       <c r="H226" s="4" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="I226" s="2">
-        <v>103</v>
+        <v>315</v>
       </c>
       <c r="J226" s="4" t="s">
         <v>12</v>
@@ -7151,34 +7210,34 @@
         <v>5</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="C227" s="2">
+        <v>101</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E227" s="2">
+        <v>6</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F227" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G227" s="2">
+        <v>307</v>
+      </c>
+      <c r="H227" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I227" s="2">
         <v>105</v>
       </c>
-      <c r="F227" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G227" s="2">
-        <v>303</v>
-      </c>
-      <c r="H227" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I227" s="2">
-        <v>315</v>
-      </c>
       <c r="J227" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K227" s="2">
-        <v>105</v>
+        <v>6</v>
+      </c>
+      <c r="K227" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.3">
@@ -7186,31 +7245,31 @@
         <v>6</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="C228" s="2">
-        <v>210</v>
+        <v>105</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F228" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G228" s="2">
         <v>105</v>
       </c>
       <c r="H228" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I228" s="2">
-        <v>315</v>
+        <v>210</v>
       </c>
       <c r="J228" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K228" s="2">
         <v>105</v>
@@ -7221,44 +7280,46 @@
         <v>7</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="C229" s="2">
-        <v>210</v>
-      </c>
-      <c r="D229" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E229" s="7" t="s">
-        <v>14</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="D229" s="4"/>
+      <c r="E229" s="7"/>
       <c r="F229" s="4" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="G229" s="2">
         <v>307</v>
       </c>
+      <c r="H229" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I229" s="12">
+        <v>210</v>
+      </c>
       <c r="J229" s="4" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="K229" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="230" spans="1:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="A230" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B230" s="13"/>
-      <c r="C230" s="13"/>
-      <c r="D230" s="13"/>
-      <c r="E230" s="13"/>
-      <c r="F230" s="13"/>
-      <c r="G230" s="13"/>
-      <c r="H230" s="13"/>
-      <c r="I230" s="13"/>
-      <c r="J230" s="13"/>
-      <c r="K230" s="13"/>
+      <c r="A230" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B230" s="14"/>
+      <c r="C230" s="14"/>
+      <c r="D230" s="14"/>
+      <c r="E230" s="14"/>
+      <c r="F230" s="14"/>
+      <c r="G230" s="14"/>
+      <c r="H230" s="14"/>
+      <c r="I230" s="14"/>
+      <c r="J230" s="14"/>
+      <c r="K230" s="14"/>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="2"/>
@@ -7288,65 +7349,61 @@
         <v>1</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="C232" s="2">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="D232" s="6"/>
       <c r="E232" s="2"/>
       <c r="F232" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G232" s="2">
+        <v>210</v>
+      </c>
+      <c r="H232" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G232" s="2">
+      <c r="I232" s="2">
         <v>316</v>
       </c>
-      <c r="H232" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I232" s="2">
-        <v>210</v>
-      </c>
-      <c r="J232" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K232" s="2">
-        <v>302</v>
-      </c>
+      <c r="J232" s="4"/>
+      <c r="K232" s="2"/>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>2</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="C233" s="2">
-        <v>316</v>
+        <v>206</v>
       </c>
       <c r="D233" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E233" s="2">
+        <v>206</v>
+      </c>
+      <c r="F233" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G233" s="2">
+        <v>210</v>
+      </c>
+      <c r="H233" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I233" s="2">
+        <v>302</v>
+      </c>
+      <c r="J233" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E233" s="2">
-        <v>103</v>
-      </c>
-      <c r="F233" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G233" s="2">
-        <v>308</v>
-      </c>
-      <c r="H233" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I233" s="2">
-        <v>301</v>
-      </c>
-      <c r="J233" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="K233" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.3">
@@ -7360,28 +7417,28 @@
         <v>206</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E234" s="2">
-        <v>210</v>
+        <v>12</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="F234" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G234" s="2">
-        <v>103</v>
+        <v>206</v>
       </c>
       <c r="H234" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I234" s="2">
-        <v>316</v>
+        <v>102</v>
       </c>
       <c r="J234" s="4" t="s">
         <v>6</v>
       </c>
       <c r="K234" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.3">
@@ -7389,7 +7446,7 @@
         <v>4</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C235" s="2">
         <v>302</v>
@@ -7404,19 +7461,19 @@
         <v>6</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H235" s="4" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="I235" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J235" s="4" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="K235" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.3">
@@ -7424,25 +7481,25 @@
         <v>5</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>79</v>
+        <v>13</v>
+      </c>
+      <c r="C236" s="2">
+        <v>301</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="E236" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F236" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G236" s="2" t="s">
-        <v>14</v>
+        <v>52</v>
+      </c>
+      <c r="G236" s="2">
+        <v>103</v>
       </c>
       <c r="H236" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I236" s="2">
         <v>206</v>
@@ -7459,34 +7516,34 @@
         <v>6</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C237" s="2">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E237" s="2">
-        <v>206</v>
+        <v>6</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="F237" s="4" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="G237" s="2">
-        <v>206</v>
+        <v>316</v>
       </c>
       <c r="H237" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I237" s="2">
+        <v>107</v>
+      </c>
+      <c r="J237" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K237" s="2">
         <v>210</v>
-      </c>
-      <c r="J237" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K237" s="2">
-        <v>109</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.3">
@@ -7494,43 +7551,55 @@
         <v>7</v>
       </c>
       <c r="D238" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E238" s="2">
+        <v>109</v>
+      </c>
+      <c r="F238" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E238" s="2">
+      <c r="G238" s="2">
         <v>316</v>
       </c>
-      <c r="F238" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G238" s="2">
-        <v>206</v>
+      <c r="H238" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I238" s="12">
+        <v>316</v>
       </c>
       <c r="J238" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K238" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="K238" s="12">
+        <v>301</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>8</v>
       </c>
+      <c r="J239" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K239" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="240" spans="1:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="A240" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B240" s="13"/>
-      <c r="C240" s="13"/>
-      <c r="D240" s="13"/>
-      <c r="E240" s="13"/>
-      <c r="F240" s="13"/>
-      <c r="G240" s="13"/>
-      <c r="H240" s="13"/>
-      <c r="I240" s="13"/>
-      <c r="J240" s="13"/>
-      <c r="K240" s="13"/>
+      <c r="A240" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B240" s="14"/>
+      <c r="C240" s="14"/>
+      <c r="D240" s="14"/>
+      <c r="E240" s="14"/>
+      <c r="F240" s="14"/>
+      <c r="G240" s="14"/>
+      <c r="H240" s="14"/>
+      <c r="I240" s="14"/>
+      <c r="J240" s="14"/>
+      <c r="K240" s="14"/>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="2"/>
@@ -7560,96 +7629,232 @@
         <v>1</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C242" s="2"/>
-      <c r="D242" s="4"/>
-      <c r="E242" s="2"/>
-      <c r="F242" s="4"/>
-      <c r="G242" s="2"/>
-      <c r="H242" s="4"/>
-      <c r="I242" s="2"/>
-      <c r="J242" s="4"/>
-      <c r="K242" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="C242" s="2">
+        <v>103</v>
+      </c>
+      <c r="D242" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E242" s="2">
+        <v>206</v>
+      </c>
+      <c r="F242" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G242" s="2">
+        <v>206</v>
+      </c>
+      <c r="H242" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I242" s="2">
+        <v>315</v>
+      </c>
+      <c r="J242" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K242" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>2</v>
       </c>
-      <c r="B243" s="4"/>
-      <c r="C243" s="2"/>
-      <c r="D243" s="4"/>
-      <c r="E243" s="2"/>
-      <c r="F243" s="4"/>
-      <c r="G243" s="2"/>
-      <c r="H243" s="4"/>
-      <c r="I243" s="2"/>
-      <c r="J243" s="4"/>
-      <c r="K243" s="2"/>
+      <c r="B243" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C243" s="2">
+        <v>301</v>
+      </c>
+      <c r="D243" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E243" s="2">
+        <v>315</v>
+      </c>
+      <c r="F243" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G243" s="2">
+        <v>206</v>
+      </c>
+      <c r="H243" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I243" s="2">
+        <v>315</v>
+      </c>
+      <c r="J243" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K243" s="2">
+        <v>315</v>
+      </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>3</v>
       </c>
-      <c r="B244" s="4"/>
-      <c r="C244" s="2"/>
-      <c r="D244" s="4"/>
-      <c r="E244" s="2"/>
-      <c r="F244" s="4"/>
-      <c r="G244" s="2"/>
-      <c r="H244" s="4"/>
-      <c r="I244" s="2"/>
-      <c r="J244" s="4"/>
-      <c r="K244" s="2"/>
+      <c r="B244" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C244" s="2">
+        <v>212</v>
+      </c>
+      <c r="D244" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E244" s="2">
+        <v>315</v>
+      </c>
+      <c r="F244" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G244" s="2">
+        <v>301</v>
+      </c>
+      <c r="H244" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I244" s="2">
+        <v>212</v>
+      </c>
+      <c r="J244" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K244" s="2">
+        <v>206</v>
+      </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>4</v>
       </c>
-      <c r="B245" s="4"/>
-      <c r="C245" s="2"/>
-      <c r="D245" s="4"/>
-      <c r="E245" s="2"/>
-      <c r="F245" s="4"/>
-      <c r="G245" s="2"/>
-      <c r="H245" s="4"/>
-      <c r="I245" s="2"/>
-      <c r="J245" s="4"/>
-      <c r="K245" s="2"/>
+      <c r="B245" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C245" s="2">
+        <v>212</v>
+      </c>
+      <c r="D245" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F245" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G245" s="2">
+        <v>315</v>
+      </c>
+      <c r="H245" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I245" s="2">
+        <v>212</v>
+      </c>
+      <c r="J245" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K245" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>5</v>
       </c>
-      <c r="B246" s="4"/>
-      <c r="C246" s="2"/>
-      <c r="D246" s="4"/>
-      <c r="E246" s="2"/>
-      <c r="F246" s="4"/>
-      <c r="G246" s="2"/>
-      <c r="H246" s="4"/>
-      <c r="I246" s="2"/>
-      <c r="J246" s="4"/>
-      <c r="K246" s="2"/>
+      <c r="B246" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C246" s="2">
+        <v>206</v>
+      </c>
+      <c r="D246" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E246" s="2">
+        <v>302</v>
+      </c>
+      <c r="F246" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G246" s="2">
+        <v>302</v>
+      </c>
+      <c r="H246" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I246" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J246" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K246" s="2">
+        <v>303</v>
+      </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>6</v>
       </c>
-      <c r="B247" s="4"/>
-      <c r="C247" s="2"/>
-      <c r="D247" s="4"/>
-      <c r="E247" s="2"/>
-      <c r="F247" s="4"/>
-      <c r="G247" s="2"/>
-      <c r="H247" s="4"/>
-      <c r="I247" s="2"/>
-      <c r="J247" s="4"/>
-      <c r="K247" s="2"/>
+      <c r="B247" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C247" s="2">
+        <v>206</v>
+      </c>
+      <c r="D247" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E247" s="2">
+        <v>109</v>
+      </c>
+      <c r="F247" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G247" s="2">
+        <v>212</v>
+      </c>
+      <c r="H247" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I247" s="2">
+        <v>314</v>
+      </c>
+      <c r="J247" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K247" s="2">
+        <v>206</v>
+      </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>7</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C248" s="12">
+        <v>101</v>
+      </c>
+      <c r="D248" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E248" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J248" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K248" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.3">
@@ -7660,19 +7865,19 @@
     <row r="250" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="251" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="252" spans="1:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="A252" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B252" s="13"/>
-      <c r="C252" s="13"/>
-      <c r="D252" s="13"/>
-      <c r="E252" s="13"/>
-      <c r="F252" s="13"/>
-      <c r="G252" s="13"/>
-      <c r="H252" s="13"/>
-      <c r="I252" s="13"/>
-      <c r="J252" s="13"/>
-      <c r="K252" s="13"/>
+      <c r="A252" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B252" s="14"/>
+      <c r="C252" s="14"/>
+      <c r="D252" s="14"/>
+      <c r="E252" s="14"/>
+      <c r="F252" s="14"/>
+      <c r="G252" s="14"/>
+      <c r="H252" s="14"/>
+      <c r="I252" s="14"/>
+      <c r="J252" s="14"/>
+      <c r="K252" s="14"/>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="2"/>
@@ -7701,131 +7906,277 @@
       <c r="A254" s="2">
         <v>1</v>
       </c>
-      <c r="B254" s="4"/>
-      <c r="C254" s="2"/>
-      <c r="D254" s="4"/>
-      <c r="E254" s="2"/>
-      <c r="F254" s="4"/>
-      <c r="G254" s="2"/>
+      <c r="B254" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C254" s="2">
+        <v>206</v>
+      </c>
+      <c r="D254" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E254" s="2">
+        <v>308</v>
+      </c>
+      <c r="F254" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G254" s="2">
+        <v>315</v>
+      </c>
       <c r="H254" s="4"/>
       <c r="I254" s="2"/>
-      <c r="J254" s="4"/>
-      <c r="K254" s="2"/>
+      <c r="J254" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K254" s="2">
+        <v>206</v>
+      </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>2</v>
       </c>
-      <c r="B255" s="4"/>
-      <c r="C255" s="2"/>
-      <c r="D255" s="4"/>
-      <c r="E255" s="2"/>
-      <c r="F255" s="4"/>
-      <c r="G255" s="2"/>
-      <c r="H255" s="4"/>
-      <c r="I255" s="2"/>
-      <c r="J255" s="4"/>
-      <c r="K255" s="2"/>
+      <c r="B255" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C255" s="2">
+        <v>109</v>
+      </c>
+      <c r="D255" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E255" s="2">
+        <v>308</v>
+      </c>
+      <c r="F255" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G255" s="2">
+        <v>308</v>
+      </c>
+      <c r="H255" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I255" s="2">
+        <v>208</v>
+      </c>
+      <c r="J255" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K255" s="2">
+        <v>206</v>
+      </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>3</v>
       </c>
-      <c r="B256" s="4"/>
-      <c r="C256" s="2"/>
-      <c r="D256" s="4"/>
-      <c r="E256" s="2"/>
-      <c r="F256" s="4"/>
-      <c r="G256" s="2"/>
-      <c r="H256" s="4"/>
-      <c r="I256" s="2"/>
-      <c r="J256" s="4"/>
-      <c r="K256" s="2"/>
+      <c r="B256" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C256" s="2">
+        <v>306</v>
+      </c>
+      <c r="D256" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E256" s="2">
+        <v>208</v>
+      </c>
+      <c r="F256" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G256" s="2">
+        <v>308</v>
+      </c>
+      <c r="H256" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I256" s="2">
+        <v>206</v>
+      </c>
+      <c r="J256" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K256" s="2">
+        <v>308</v>
+      </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>4</v>
       </c>
-      <c r="B257" s="4"/>
-      <c r="C257" s="2"/>
-      <c r="D257" s="4"/>
-      <c r="E257" s="2"/>
-      <c r="F257" s="4"/>
-      <c r="G257" s="2"/>
-      <c r="H257" s="4"/>
-      <c r="I257" s="2"/>
-      <c r="J257" s="4"/>
-      <c r="K257" s="2"/>
+      <c r="B257" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C257" s="2">
+        <v>306</v>
+      </c>
+      <c r="D257" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E257" s="2">
+        <v>304</v>
+      </c>
+      <c r="F257" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G257" s="2">
+        <v>206</v>
+      </c>
+      <c r="H257" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I257" s="2">
+        <v>309</v>
+      </c>
+      <c r="J257" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K257" s="2">
+        <v>308</v>
+      </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>5</v>
       </c>
-      <c r="B258" s="4"/>
-      <c r="C258" s="2"/>
-      <c r="D258" s="4"/>
-      <c r="E258" s="2"/>
-      <c r="F258" s="4"/>
-      <c r="G258" s="2"/>
-      <c r="H258" s="4"/>
-      <c r="I258" s="2"/>
-      <c r="J258" s="4"/>
-      <c r="K258" s="2"/>
+      <c r="B258" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C258" s="2">
+        <v>311</v>
+      </c>
+      <c r="D258" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E258" s="2">
+        <v>206</v>
+      </c>
+      <c r="F258" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G258" s="2">
+        <v>306</v>
+      </c>
+      <c r="H258" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I258" s="2">
+        <v>306</v>
+      </c>
+      <c r="J258" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K258" s="2">
+        <v>309</v>
+      </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>6</v>
       </c>
-      <c r="B259" s="4"/>
-      <c r="C259" s="2"/>
-      <c r="D259" s="4"/>
-      <c r="E259" s="2"/>
-      <c r="F259" s="4"/>
-      <c r="G259" s="2"/>
-      <c r="H259" s="4"/>
-      <c r="I259" s="2"/>
-      <c r="J259" s="4"/>
-      <c r="K259" s="2"/>
+      <c r="B259" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C259" s="2">
+        <v>208</v>
+      </c>
+      <c r="D259" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E259" s="2">
+        <v>315</v>
+      </c>
+      <c r="F259" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G259" s="2">
+        <v>306</v>
+      </c>
+      <c r="H259" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I259" s="2">
+        <v>308</v>
+      </c>
+      <c r="J259" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K259" s="2">
+        <v>306</v>
+      </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>7</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C260" s="12">
+        <v>208</v>
+      </c>
+      <c r="F260" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G260" s="12">
+        <v>304</v>
+      </c>
+      <c r="H260" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I260" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J260" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K260" s="12">
+        <v>208</v>
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>8</v>
       </c>
+      <c r="H261" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I261" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A240:K240"/>
-    <mergeCell ref="A252:K252"/>
-    <mergeCell ref="A210:K210"/>
-    <mergeCell ref="A221:K221"/>
-    <mergeCell ref="A230:K230"/>
-    <mergeCell ref="A162:K162"/>
-    <mergeCell ref="A171:K171"/>
-    <mergeCell ref="A180:K180"/>
-    <mergeCell ref="A191:K191"/>
-    <mergeCell ref="A201:K201"/>
-    <mergeCell ref="A115:K115"/>
-    <mergeCell ref="A124:K124"/>
-    <mergeCell ref="A133:K133"/>
-    <mergeCell ref="A144:K144"/>
-    <mergeCell ref="A153:K153"/>
+    <mergeCell ref="A51:K51"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A11:K11"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A31:K31"/>
+    <mergeCell ref="A41:K41"/>
     <mergeCell ref="A86:K86"/>
     <mergeCell ref="A97:K97"/>
     <mergeCell ref="A106:K106"/>
     <mergeCell ref="A60:K60"/>
     <mergeCell ref="A68:K68"/>
     <mergeCell ref="A77:K77"/>
-    <mergeCell ref="A51:K51"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A31:K31"/>
-    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="A115:K115"/>
+    <mergeCell ref="A124:K124"/>
+    <mergeCell ref="A133:K133"/>
+    <mergeCell ref="A144:K144"/>
+    <mergeCell ref="A153:K153"/>
+    <mergeCell ref="A162:K162"/>
+    <mergeCell ref="A171:K171"/>
+    <mergeCell ref="A180:K180"/>
+    <mergeCell ref="A191:K191"/>
+    <mergeCell ref="A201:K201"/>
+    <mergeCell ref="A240:K240"/>
+    <mergeCell ref="A252:K252"/>
+    <mergeCell ref="A210:K210"/>
+    <mergeCell ref="A221:K221"/>
+    <mergeCell ref="A230:K230"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
